--- a/module/waapi/waapi_Auto_Import_ExternalSource/Excel/B类（LevelSequence）剧情语音.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/Excel/B类（LevelSequence）剧情语音.xlsx
@@ -2405,7 +2405,11 @@
           <t>震惊</t>
         </is>
       </c>
-      <c r="G36" s="2" t="str"/>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
           <t>VO_External_1P_2D</t>
@@ -4136,7 +4140,11 @@
           <t>喜悦</t>
         </is>
       </c>
-      <c r="G85" s="2" t="str"/>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
           <t>VO_External_1P_2D</t>
@@ -4206,7 +4214,11 @@
           <t>担忧</t>
         </is>
       </c>
-      <c r="G87" s="2" t="str"/>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
           <t>VO_External_1P_2D</t>
@@ -4241,7 +4253,11 @@
           <t>疑惑</t>
         </is>
       </c>
-      <c r="G88" s="2" t="str"/>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
           <t>VO_External_1P_2D</t>
@@ -4311,7 +4327,11 @@
           <t>震惊</t>
         </is>
       </c>
-      <c r="G90" s="2" t="str"/>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
           <t>VO_External_1P_2D</t>
